--- a/DefectLogCiclo2_1Equipo.xlsx
+++ b/DefectLogCiclo2_1Equipo.xlsx
@@ -31768,7 +31768,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="17">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="C23" s="56">
         <f>SUM(C18:C22)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -32117,7 +32117,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="17">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -32150,7 +32150,7 @@
       </c>
       <c r="C31" s="56">
         <f>SUM(C26:C30)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
